--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD00A43-9858-4582-8E2C-119B1C29877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CAF5E2-215B-460C-B800-897CB0440D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,21 +376,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -418,16 +425,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,61 +762,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -824,770 +845,770 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20">
         <v>45138</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>45145</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>45152</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>45159</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>45166</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <v>45173</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>45180</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="22">
         <v>45187</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>45194</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <v>45201</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="22">
         <v>45208</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <v>45215</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <v>45222</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="21">
         <v>45229</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="21">
         <v>45236</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="21">
         <v>45243</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="21">
         <v>45250</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="21">
         <v>45257</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="21">
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
-      <c r="W3" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
+      <c r="V3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="W4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
-      <c r="W5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+      <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="X5" s="31"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14"/>
-      <c r="W6" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="30"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="W7" t="s">
+      <c r="M7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="X7" s="33"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="10"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="W9" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+      <c r="V9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="32"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W9" s="28"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="31"/>
-      <c r="J10" s="5"/>
+      <c r="E10" s="27"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="5"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="2"/>
-      <c r="M11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
-      <c r="M12" s="16"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M12" s="14"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
-      <c r="M13" s="5"/>
-      <c r="R13" s="11"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M13" s="4"/>
+      <c r="R13" s="9"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
-      <c r="M14" s="5"/>
-      <c r="R14" s="11"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M14" s="4"/>
+      <c r="R14" s="9"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
-      <c r="M15" s="5"/>
-      <c r="S15" s="11"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="M15" s="4"/>
+      <c r="S15" s="9"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="14"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="2"/>
-      <c r="M18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="11"/>
-      <c r="U19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="O19" s="9"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="5"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="5"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="5"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
-      <c r="M23" s="5"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="5"/>
+      <c r="M23" s="4"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
-      <c r="M24" s="5"/>
-      <c r="U24" s="16"/>
+      <c r="M24" s="4"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="14"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="2"/>
-      <c r="M26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
-      <c r="M27" s="5"/>
-      <c r="R27" s="11"/>
-      <c r="U27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="R27" s="9"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="14"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="3">
+      <c r="B30" s="33">
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="2"/>
-      <c r="M30" s="5"/>
-      <c r="U30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="3">
+      <c r="B31" s="33">
         <v>2</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="J31" s="20"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="2"/>
-      <c r="M31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
-      <c r="M32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="14"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="12"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="F35" s="31"/>
-      <c r="J35" s="5"/>
+      <c r="F35" s="27"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
-      <c r="M35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="M35" s="4"/>
+      <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="M36" s="4"/>
+      <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="14"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="F39" s="11"/>
-      <c r="J39" s="5"/>
+      <c r="F39" s="32"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2"/>
-      <c r="M39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="M39" s="4"/>
+      <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="H40" s="11"/>
-      <c r="J40" s="5"/>
+      <c r="H40" s="9"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
-      <c r="M40" s="5"/>
-      <c r="U40" s="5"/>
+      <c r="M40" s="4"/>
+      <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="J41" s="16"/>
+      <c r="J41" s="14"/>
       <c r="K41" s="2"/>
-      <c r="M41" s="5"/>
-      <c r="U41" s="5"/>
+      <c r="M41" s="4"/>
+      <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="5"/>
-      <c r="U42" s="5"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="4"/>
+      <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CAF5E2-215B-460C-B800-897CB0440D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D211FD1-6B42-434E-B1CD-6BF403DF49AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,27 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,19 +288,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,10 +393,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,28 +451,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,21 +803,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,24 +882,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="20">
+      <c r="C2" s="39">
         <v>45138</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="40">
         <v>45145</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="40">
         <v>45152</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="40">
         <v>45159</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="41">
         <v>45166</v>
       </c>
       <c r="H2" s="21">
@@ -908,11 +945,11 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -936,9 +973,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
@@ -950,11 +987,11 @@
       <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W4" s="34"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="5"/>
@@ -981,11 +1018,11 @@
       </c>
       <c r="W5" s="27"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1010,24 +1047,24 @@
       </c>
       <c r="W6" s="26"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="2"/>
       <c r="M7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="5"/>
@@ -1050,11 +1087,11 @@
       <c r="T8" s="6"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1077,23 +1114,23 @@
       <c r="V9" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="28"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W9" s="33"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="32"/>
       <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="M10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
@@ -1102,9 +1139,9 @@
       <c r="M11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
@@ -1113,9 +1150,9 @@
       <c r="M12" s="14"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2"/>
@@ -1125,9 +1162,9 @@
       <c r="R13" s="9"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2"/>
@@ -1137,9 +1174,9 @@
       <c r="R14" s="9"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
@@ -1149,9 +1186,9 @@
       <c r="S15" s="9"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="5"/>
@@ -1174,11 +1211,11 @@
       <c r="T16" s="7"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1199,9 +1236,9 @@
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
@@ -1210,9 +1247,9 @@
       <c r="M18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
@@ -1222,9 +1259,9 @@
       <c r="O19" s="9"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2"/>
@@ -1234,9 +1271,9 @@
       <c r="T20" s="9"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2"/>
@@ -1246,9 +1283,9 @@
       <c r="T21" s="9"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2"/>
@@ -1258,9 +1295,9 @@
       <c r="T22" s="9"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
@@ -1270,9 +1307,9 @@
       <c r="T23" s="9"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2"/>
@@ -1281,11 +1318,11 @@
       <c r="M24" s="4"/>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1306,9 +1343,9 @@
       <c r="T25" s="11"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
@@ -1317,11 +1354,11 @@
       <c r="M26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2"/>
@@ -1331,9 +1368,9 @@
       <c r="R27" s="9"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="5"/>
@@ -1356,11 +1393,11 @@
       <c r="T28" s="7"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -1381,9 +1418,9 @@
       <c r="T29" s="11"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="33">
+      <c r="B30" s="29">
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
@@ -1392,9 +1429,9 @@
       <c r="M30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="33">
+      <c r="B31" s="29">
         <v>2</v>
       </c>
       <c r="C31" s="2"/>
@@ -1403,9 +1440,9 @@
       <c r="M31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="2"/>
@@ -1414,9 +1451,9 @@
       <c r="M32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="5"/>
@@ -1439,11 +1476,11 @@
       <c r="T33" s="6"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1464,9 +1501,9 @@
       <c r="T34" s="11"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
@@ -1476,9 +1513,9 @@
       <c r="M35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
@@ -1488,9 +1525,9 @@
       <c r="M36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="5"/>
@@ -1513,11 +1550,11 @@
       <c r="T37" s="6"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1538,9 +1575,9 @@
       <c r="T38" s="11"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2"/>
@@ -1550,9 +1587,9 @@
       <c r="M39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="2"/>
@@ -1562,9 +1599,9 @@
       <c r="M40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
@@ -1573,9 +1610,9 @@
       <c r="M41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
@@ -1585,9 +1622,9 @@
       <c r="M42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="5"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D211FD1-6B42-434E-B1CD-6BF403DF49AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44ABC0-787E-4D09-A559-0D2500BA7479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -294,12 +292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,26 +396,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,7 +420,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,32 +454,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,58 +800,60 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -882,770 +881,771 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="39">
+      <c r="B2" s="13"/>
+      <c r="C2" s="31">
         <v>45138</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="32">
         <v>45145</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="32">
         <v>45152</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="32">
         <v>45159</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="33">
         <v>45166</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="15">
         <v>45173</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="15">
         <v>45180</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="16">
         <v>45187</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="14">
         <v>45194</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="15">
         <v>45201</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="16">
         <v>45208</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="15">
         <v>45215</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="15">
         <v>45222</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="15">
         <v>45229</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="15">
         <v>45236</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="15">
         <v>45243</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="15">
         <v>45250</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="15">
         <v>45257</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="15">
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9"/>
       <c r="V3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="34"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="30" t="s">
+      <c r="W4" s="28"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="6"/>
       <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
       <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="26"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="J7" s="36"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="28"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="30" t="s">
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
       <c r="V9" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="33"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="32"/>
-      <c r="J10" s="4"/>
+      <c r="E10" s="26"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="M12" s="14"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M12" s="30"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="R13" s="9"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+      <c r="R13" s="28"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="M14" s="4"/>
-      <c r="R14" s="9"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="R14" s="28"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-      <c r="M15" s="4"/>
-      <c r="S15" s="9"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="30" t="s">
+      <c r="M15" s="3"/>
+      <c r="S15" s="28"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="2"/>
-      <c r="M18" s="4"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="4"/>
-      <c r="O19" s="9"/>
-      <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M19" s="3"/>
+      <c r="O19" s="28"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="4"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M20" s="3"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="4"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M21" s="3"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="4"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M22" s="3"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="2"/>
-      <c r="M23" s="4"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="2"/>
-      <c r="M24" s="4"/>
-      <c r="U24" s="14"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="M24" s="3"/>
+      <c r="U24" s="30"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="2"/>
-      <c r="M26" s="4"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="R27" s="9"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="30" t="s">
+      <c r="M27" s="3"/>
+      <c r="Q27" s="28"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="12"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="29">
+      <c r="B30" s="23">
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="2"/>
-      <c r="M30" s="4"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="29">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="J31" s="18"/>
+      <c r="H31" s="39"/>
       <c r="K31" s="2"/>
-      <c r="M31" s="4"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="30" t="s">
+      <c r="M32" s="3"/>
+      <c r="Q32" s="28"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="36"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="35"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="F35" s="27"/>
-      <c r="J35" s="4"/>
+      <c r="F35" s="21"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="2"/>
-      <c r="M35" s="4"/>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="4"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="30" t="s">
+      <c r="M36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="8"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="F39" s="32"/>
-      <c r="J39" s="4"/>
+      <c r="F39" s="26"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="2"/>
-      <c r="M39" s="4"/>
-      <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="H40" s="9"/>
-      <c r="J40" s="4"/>
+      <c r="H40" s="27"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="2"/>
-      <c r="M40" s="4"/>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="2"/>
-      <c r="M41" s="4"/>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="4"/>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="30" t="s">
+      <c r="L42" s="28"/>
+      <c r="M42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="8"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44ABC0-787E-4D09-A559-0D2500BA7479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572E87F-1387-4C0D-99C0-6A02D11A318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,13 +299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,9 +403,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,7 +461,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,21 +471,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -799,8 +810,8 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,10 +909,10 @@
       <c r="F2" s="32">
         <v>45159</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="39">
         <v>45166</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="40">
         <v>45173</v>
       </c>
       <c r="I2" s="15">
@@ -945,10 +956,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -980,7 +991,7 @@
       <c r="C4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" t="s">
@@ -1010,7 +1021,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="37"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="6"/>
       <c r="V5" t="s">
         <v>48</v>
@@ -1018,10 +1029,10 @@
       <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1082,15 +1093,15 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="37"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="5"/>
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1207,14 +1218,14 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="37"/>
+      <c r="T16" s="34"/>
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1318,10 +1329,10 @@
       <c r="U24" s="30"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1389,14 +1400,14 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="37"/>
+      <c r="T28" s="34"/>
       <c r="U28" s="6"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1423,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="2"/>
       <c r="M30" s="3"/>
       <c r="U30" s="3"/>
@@ -1434,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="41"/>
       <c r="K31" s="2"/>
       <c r="M31" s="3"/>
       <c r="U31" s="3"/>
@@ -1474,13 +1485,13 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="36"/>
+      <c r="U33" s="33"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1546,15 +1557,15 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="37"/>
+      <c r="S37" s="34"/>
       <c r="T37" s="5"/>
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1637,7 +1648,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="4"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="36"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572E87F-1387-4C0D-99C0-6A02D11A318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C46D5D-860F-494D-B9EE-891D92CF3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Completed-Failed</t>
+  </si>
+  <si>
+    <t>=IF(WEEKNUM(TODAY())==WEEKNUM(C2))</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,11 +408,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -418,15 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,12 +458,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -483,13 +468,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -497,7 +492,92 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,8 +890,8 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,840 +903,847 @@
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.6640625" customWidth="1"/>
     <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="22" max="22" width="36.88671875" customWidth="1"/>
     <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="31">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10">
         <v>45138</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="11">
         <v>45145</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="11">
         <v>45152</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="34">
         <v>45166</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="11">
         <v>45173</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="11">
         <v>45180</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>45187</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="10">
         <v>45194</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="11">
         <v>45201</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="12">
         <v>45208</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="11">
         <v>45215</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="11">
         <v>45222</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="11">
         <v>45229</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="11">
         <v>45236</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="11">
         <v>45243</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="11">
         <v>45250</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="11">
         <v>45257</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="11">
         <v>45264</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
       <c r="V3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="2"/>
+      <c r="U4" s="2"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="28"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="5"/>
       <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="21"/>
+      <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
       <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="20"/>
+      <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="U7" s="2"/>
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="22"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
       <c r="V9" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="27"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="26"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="22"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="30"/>
-      <c r="U12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="26"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="R13" s="28"/>
-      <c r="U13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="R13" s="24"/>
+      <c r="U13" s="2"/>
+      <c r="V13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="R14" s="28"/>
-      <c r="U14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="R14" s="24"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="S15" s="28"/>
-      <c r="U15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="S15" s="24"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="5"/>
+      <c r="V16" t="b">
+        <f ca="1">(WEEKNUM(TODAY())=WEEKNUM(C2))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="O19" s="28"/>
-      <c r="U19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="24"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="U24" s="30"/>
+      <c r="C24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="9"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="Q27" s="28"/>
-      <c r="U27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="Q27" s="24"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="23">
+      <c r="A30" s="1"/>
+      <c r="B30" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="2"/>
-      <c r="M30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="23">
+      <c r="A31" s="1"/>
+      <c r="B31" s="19">
         <v>2</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="H31" s="41"/>
-      <c r="K31" s="2"/>
-      <c r="M31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="H31" s="39"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="2"/>
-      <c r="M32" s="3"/>
-      <c r="Q32" s="28"/>
-      <c r="U32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="Q32" s="24"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="33"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="27"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="F35" s="21"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="2"/>
-      <c r="M35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="F35" s="17"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="2"/>
+      <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="6"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="F39" s="26"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="2"/>
-      <c r="M39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="F39" s="22"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="H40" s="27"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="2"/>
-      <c r="M40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="H40" s="22"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="2"/>
-      <c r="M41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1669,6 +1756,17 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:U2">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>WEEKNUM(TODAY())=WEEKNUM(C2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>WEEKNUM(TODAY())&gt;WEEKNUM(C2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C46D5D-860F-494D-B9EE-891D92CF3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B7113-519C-4018-B5CD-B2D768AB0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -462,12 +462,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,7 +478,13 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -492,35 +492,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -538,42 +510,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,8 +827,8 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,34 +845,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -947,28 +884,28 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -989,7 +926,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="32">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -1036,10 +973,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1109,10 +1046,10 @@
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1178,10 +1115,10 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1309,10 +1246,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1339,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="J18" s="33"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="1"/>
       <c r="M18" s="2"/>
       <c r="U18" s="2"/>
@@ -1416,10 +1353,10 @@
       <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1491,10 +1428,10 @@
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1532,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="37"/>
       <c r="K31" s="1"/>
       <c r="M31" s="2"/>
       <c r="U31" s="2"/>
@@ -1575,10 +1512,10 @@
       <c r="U33" s="27"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1649,10 +1586,10 @@
       <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1757,13 +1694,13 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:U2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>WEEKNUM(TODAY())=WEEKNUM(C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKNUM(TODAY())&gt;WEEKNUM(C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B7113-519C-4018-B5CD-B2D768AB0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF0A2C0-492F-45EE-8AF0-A55D074F5E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Subject</t>
   </si>
@@ -172,24 +172,6 @@
   </si>
   <si>
     <t>4 (TBC)</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Due in future</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>OverDue</t>
-  </si>
-  <si>
-    <t>Completed-Passed</t>
-  </si>
-  <si>
-    <t>Completed-Failed</t>
   </si>
   <si>
     <t>=IF(WEEKNUM(TODAY())==WEEKNUM(C2))</t>
@@ -251,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,18 +267,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,9 +376,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -439,9 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,37 +420,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +468,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -510,7 +482,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,35 +816,35 @@
     <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -884,32 +856,32 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -926,7 +898,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="27">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -972,7 +944,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
@@ -996,29 +968,22 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="29"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="3"/>
@@ -1038,14 +1003,10 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="28"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="5"/>
-      <c r="V5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="17"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>42</v>
       </c>
@@ -1069,29 +1030,20 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="J7" s="26"/>
       <c r="K7" s="1"/>
       <c r="M7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1102,19 +1054,18 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="28"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1077,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -1138,87 +1089,77 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
-      <c r="V9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="23"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="E10" s="22"/>
-      <c r="J10" s="2"/>
+      <c r="E10" s="20"/>
       <c r="K10" s="1"/>
       <c r="M10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="40"/>
       <c r="M11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="22"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
-      <c r="R13" s="24"/>
+      <c r="R13" s="21"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="M14" s="2"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="21"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
-      <c r="S15" s="24"/>
+      <c r="S15" s="21"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
@@ -1228,7 +1169,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
@@ -1238,7 +1179,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="28"/>
+      <c r="T16" s="24"/>
       <c r="U16" s="5"/>
       <c r="V16" t="b">
         <f ca="1">(WEEKNUM(TODAY())=WEEKNUM(C2))</f>
@@ -1258,9 +1199,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1276,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="34"/>
       <c r="K18" s="1"/>
       <c r="M18" s="2"/>
       <c r="U18" s="2"/>
@@ -1287,70 +1228,69 @@
         <v>18</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="1"/>
       <c r="M19" s="2"/>
-      <c r="O19" s="24"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="M20" s="2"/>
-      <c r="T20" s="24"/>
+      <c r="T20" s="21"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="M21" s="2"/>
-      <c r="T21" s="24"/>
+      <c r="T21" s="21"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
       <c r="M22" s="2"/>
-      <c r="T22" s="24"/>
+      <c r="T22" s="21"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="M23" s="2"/>
-      <c r="T23" s="24"/>
+      <c r="T23" s="21"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="M24" s="2"/>
-      <c r="U24" s="26"/>
+      <c r="U24" s="22"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
@@ -1379,7 +1319,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
@@ -1392,19 +1332,19 @@
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="M27" s="2"/>
-      <c r="Q27" s="24"/>
+      <c r="Q27" s="21"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
@@ -1424,7 +1364,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="28"/>
+      <c r="T28" s="24"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -1458,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="1"/>
       <c r="M30" s="2"/>
       <c r="U30" s="2"/>
@@ -1469,26 +1409,26 @@
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="37"/>
+      <c r="H31" s="32"/>
       <c r="K31" s="1"/>
       <c r="M31" s="2"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
-      <c r="Q32" s="24"/>
+      <c r="Q32" s="21"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
@@ -1509,7 +1449,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="27"/>
+      <c r="U33" s="23"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
@@ -1538,11 +1478,11 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="M35" s="2"/>
@@ -1550,19 +1490,18 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="I36" s="24"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="21"/>
       <c r="M36" s="2"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
@@ -1581,7 +1520,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
@@ -1612,11 +1551,11 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="20"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
       <c r="M39" s="2"/>
@@ -1628,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="H40" s="22"/>
+      <c r="H40" s="20"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
       <c r="M40" s="2"/>
@@ -1647,19 +1586,19 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="24"/>
+      <c r="L42" s="21"/>
       <c r="M42" s="2"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1672,7 +1611,7 @@
       <c r="J43" s="5"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="27"/>
+      <c r="M43" s="23"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -1694,14 +1633,14 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:U2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>WEEKNUM(TODAY())=WEEKNUM(C2)</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKNUM(TODAY())&gt;WEEKNUM(C2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>WEEKNUM(TODAY())=WEEKNUM(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF0A2C0-492F-45EE-8AF0-A55D074F5E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D69024-F76C-4387-8899-01F2F2759085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -420,11 +420,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,18 +443,23 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -799,52 +802,52 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="36.88671875" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="36.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -856,32 +859,32 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -944,11 +947,11 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -960,7 +963,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -969,19 +972,26 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="18" t="s">
         <v>31</v>
@@ -997,20 +1007,20 @@
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="24"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1022,7 +1032,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1031,17 +1041,25 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="18" t="s">
         <v>30</v>
@@ -1055,21 +1073,22 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="24"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1081,7 +1100,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1090,7 +1109,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
@@ -1098,66 +1117,111 @@
       <c r="C10" s="1"/>
       <c r="E10" s="20"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="2"/>
-      <c r="R13" s="21"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="2"/>
-      <c r="R14" s="21"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="2"/>
-      <c r="S15" s="21"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="18" t="s">
         <v>21</v>
@@ -1173,24 +1237,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="24"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="5"/>
       <c r="V16" t="b">
         <f ca="1">(WEEKNUM(TODAY())=WEEKNUM(C2))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1199,10 +1263,10 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="7"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1211,18 +1275,26 @@
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="32"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1230,10 +1302,18 @@
       <c r="C19" s="1"/>
       <c r="J19" s="20"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="2"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>17</v>
@@ -1241,11 +1321,18 @@
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="2"/>
-      <c r="T20" s="21"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>19</v>
@@ -1253,11 +1340,18 @@
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="2"/>
-      <c r="T21" s="21"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="39"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
@@ -1265,11 +1359,18 @@
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="2"/>
-      <c r="T22" s="21"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="39"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
         <v>14</v>
@@ -1277,11 +1378,18 @@
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="2"/>
-      <c r="T23" s="21"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="39"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -1289,14 +1397,22 @@
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="2"/>
-      <c r="U24" s="22"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1308,7 +1424,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -1317,18 +1433,26 @@
       <c r="T25" s="7"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="J26" s="26"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="1"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1338,11 +1462,18 @@
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="2"/>
-      <c r="Q27" s="21"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
         <v>34</v>
@@ -1358,20 +1489,20 @@
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="24"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1383,7 +1514,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -1392,29 +1523,45 @@
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="J30" s="33"/>
+      <c r="J30" s="31"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="30"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>44</v>
@@ -1422,11 +1569,18 @@
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="40"/>
       <c r="M32" s="2"/>
-      <c r="Q32" s="21"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="18" t="s">
         <v>45</v>
@@ -1442,20 +1596,20 @@
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="23"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1467,7 +1621,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -1476,7 +1630,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
         <v>30</v>
@@ -1485,21 +1639,37 @@
       <c r="F35" s="16"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="2"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="18" t="s">
         <v>34</v>
@@ -1515,20 +1685,20 @@
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="24"/>
+      <c r="S37" s="23"/>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1540,7 +1710,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="7"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -1549,7 +1719,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="19" t="s">
         <v>30</v>
@@ -1558,10 +1728,18 @@
       <c r="F39" s="20"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="19" t="s">
         <v>32</v>
@@ -1570,21 +1748,37 @@
       <c r="H40" s="20"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
+      <c r="L40" s="40"/>
       <c r="M40" s="2"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="J41" s="26"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="40"/>
       <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
@@ -1592,11 +1786,18 @@
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="2"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="18" t="s">
         <v>36</v>
@@ -1611,8 +1812,8 @@
       <c r="J43" s="5"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D69024-F76C-4387-8899-01F2F2759085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB38F56-991E-4936-B56F-A3E1F1326296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="28680" yWindow="-5640" windowWidth="16440" windowHeight="28440" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -447,19 +447,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -801,9 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,10 +947,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -980,15 +979,9 @@
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="39"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1017,10 +1010,10 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1048,15 +1041,8 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1073,7 +1059,6 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
@@ -1085,10 +1070,10 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1117,15 +1102,8 @@
       <c r="C10" s="1"/>
       <c r="E10" s="20"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1134,16 +1112,9 @@
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="36"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1153,15 +1124,8 @@
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
       <c r="M12" s="21"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1171,15 +1135,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="37"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s">
         <v>46</v>
@@ -1192,15 +1150,9 @@
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
+      <c r="R14" s="37"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1210,15 +1162,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
+      <c r="S15" s="37"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,10 +1197,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1264,7 +1210,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="34"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
@@ -1283,15 +1229,8 @@
       <c r="C18" s="1"/>
       <c r="I18" s="32"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="40"/>
       <c r="M18" s="2"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1302,15 +1241,8 @@
       <c r="C19" s="1"/>
       <c r="J19" s="20"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="40"/>
       <c r="M19" s="2"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1321,15 +1253,9 @@
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="40"/>
       <c r="M20" s="2"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="39"/>
+      <c r="T20" s="37"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1340,15 +1266,9 @@
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="40"/>
       <c r="M21" s="2"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="39"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1359,15 +1279,9 @@
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="40"/>
       <c r="M22" s="2"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="39"/>
+      <c r="T22" s="37"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1378,15 +1292,9 @@
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="40"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="39"/>
+      <c r="T23" s="37"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,22 +1305,15 @@
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="40"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
       <c r="U24" s="21"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1441,15 +1342,8 @@
       <c r="C26" s="1"/>
       <c r="J26" s="24"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="40"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -1462,15 +1356,9 @@
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="40"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
+      <c r="Q27" s="37"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1387,10 @@
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1531,15 +1419,8 @@
       <c r="C30" s="1"/>
       <c r="J30" s="31"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="40"/>
       <c r="M30" s="2"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -1550,15 +1431,8 @@
       <c r="C31" s="1"/>
       <c r="H31" s="30"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="40"/>
       <c r="M31" s="2"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -1569,15 +1443,9 @@
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="40"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
+      <c r="Q32" s="37"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1606,10 +1474,10 @@
       <c r="U33" s="22"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1639,15 +1507,8 @@
       <c r="F35" s="16"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="40"/>
       <c r="M35" s="2"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -1657,16 +1518,9 @@
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="40"/>
+      <c r="K36" s="40"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,10 +1549,10 @@
       <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1728,15 +1582,8 @@
       <c r="F39" s="20"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="40"/>
       <c r="M39" s="2"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -1748,15 +1595,8 @@
       <c r="H40" s="20"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="40"/>
       <c r="M40" s="2"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -1767,15 +1607,8 @@
       <c r="C41" s="1"/>
       <c r="J41" s="24"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="40"/>
       <c r="M41" s="2"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -1786,15 +1619,8 @@
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="21"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1813,7 +1639,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="42"/>
+      <c r="N43" s="43"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB38F56-991E-4936-B56F-A3E1F1326296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369003F-77C8-403E-8071-E1F4FCACEE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5640" windowWidth="16440" windowHeight="28440" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -444,13 +444,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,7 +454,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -800,25 +799,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="36.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="22" width="36.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -883,7 +882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -946,11 +945,11 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -971,20 +970,20 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="39"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="18" t="s">
         <v>31</v>
@@ -1009,11 +1008,11 @@
       <c r="T5" s="23"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1034,7 +1033,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
         <v>14</v>
@@ -1045,7 +1044,7 @@
       <c r="N7" s="1"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="18" t="s">
         <v>30</v>
@@ -1069,11 +1068,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1094,7 +1093,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
@@ -1106,29 +1105,29 @@
       <c r="N10" s="1"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="21"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="1"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
         <v>19</v>
@@ -1137,13 +1136,13 @@
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="37"/>
+      <c r="R13" s="36"/>
       <c r="U13" s="2"/>
       <c r="V13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="17" t="s">
         <v>20</v>
@@ -1152,10 +1151,10 @@
       <c r="K14" s="1"/>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-      <c r="R14" s="37"/>
+      <c r="R14" s="36"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
@@ -1164,10 +1163,10 @@
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-      <c r="S15" s="37"/>
+      <c r="S15" s="36"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="18" t="s">
         <v>21</v>
@@ -1196,11 +1195,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1210,7 +1209,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="38"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="34"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
@@ -1221,7 +1220,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
@@ -1233,7 +1232,7 @@
       <c r="N18" s="1"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1245,7 +1244,7 @@
       <c r="N19" s="1"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>17</v>
@@ -1255,10 +1254,10 @@
       <c r="K20" s="1"/>
       <c r="M20" s="2"/>
       <c r="N20" s="1"/>
-      <c r="T20" s="37"/>
+      <c r="T20" s="36"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>19</v>
@@ -1268,10 +1267,10 @@
       <c r="K21" s="1"/>
       <c r="M21" s="2"/>
       <c r="N21" s="1"/>
-      <c r="T21" s="37"/>
+      <c r="T21" s="36"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
@@ -1281,10 +1280,10 @@
       <c r="K22" s="1"/>
       <c r="M22" s="2"/>
       <c r="N22" s="1"/>
-      <c r="T22" s="37"/>
+      <c r="T22" s="36"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
         <v>14</v>
@@ -1294,10 +1293,10 @@
       <c r="K23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1"/>
-      <c r="T23" s="37"/>
+      <c r="T23" s="36"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -1309,11 +1308,11 @@
       <c r="N24" s="1"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1334,7 +1333,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
         <v>30</v>
@@ -1346,7 +1345,7 @@
       <c r="N26" s="1"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1358,10 +1357,10 @@
       <c r="K27" s="1"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1"/>
-      <c r="Q27" s="37"/>
+      <c r="Q27" s="36"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
         <v>34</v>
@@ -1386,11 +1385,11 @@
       <c r="T28" s="23"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1411,7 +1410,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
         <v>1</v>
@@ -1423,7 +1422,7 @@
       <c r="N30" s="1"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
         <v>2</v>
@@ -1435,7 +1434,7 @@
       <c r="N31" s="1"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>44</v>
@@ -1445,10 +1444,10 @@
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
-      <c r="Q32" s="37"/>
+      <c r="Q32" s="36"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="18" t="s">
         <v>45</v>
@@ -1473,11 +1472,11 @@
       <c r="T33" s="4"/>
       <c r="U33" s="22"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1498,7 +1497,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
         <v>30</v>
@@ -1511,19 +1510,19 @@
       <c r="N35" s="1"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="40"/>
+      <c r="K36" s="38"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="18" t="s">
         <v>34</v>
@@ -1548,11 +1547,11 @@
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1573,7 +1572,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="19" t="s">
         <v>30</v>
@@ -1586,7 +1585,7 @@
       <c r="N39" s="1"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="19" t="s">
         <v>32</v>
@@ -1599,7 +1598,7 @@
       <c r="N40" s="1"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="19" t="s">
         <v>34</v>
@@ -1611,9 +1610,9 @@
       <c r="N41" s="1"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1"/>
@@ -1623,9 +1622,9 @@
       <c r="N42" s="1"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="42" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1639,7 +1638,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="43"/>
+      <c r="N43" s="41"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369003F-77C8-403E-8071-E1F4FCACEE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58688D2-268F-48EB-AF38-5FAE589B7465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Subject</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>4 (TBC)</t>
-  </si>
-  <si>
-    <t>=IF(WEEKNUM(TODAY())==WEEKNUM(C2))</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -447,15 +444,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,27 +808,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="36.88671875" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="36.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -882,7 +893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -945,11 +956,11 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -970,7 +981,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
         <v>14</v>
@@ -983,7 +994,7 @@
       <c r="N4" s="1"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="18" t="s">
         <v>31</v>
@@ -1008,11 +1019,11 @@
       <c r="T5" s="23"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1033,20 +1044,27 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="1"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="44"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1057,7 +1075,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="44"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
@@ -1068,19 +1086,19 @@
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -1093,7 +1111,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
@@ -1105,7 +1123,7 @@
       <c r="N10" s="1"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1116,7 +1134,7 @@
       <c r="N11" s="1"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
         <v>17</v>
@@ -1127,22 +1145,19 @@
       <c r="N12" s="1"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="36"/>
+      <c r="R13" s="42"/>
       <c r="U13" s="2"/>
-      <c r="V13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="17" t="s">
         <v>20</v>
@@ -1154,7 +1169,7 @@
       <c r="R14" s="36"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>14</v>
@@ -1166,7 +1181,7 @@
       <c r="S15" s="36"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="18" t="s">
         <v>21</v>
@@ -1190,16 +1205,12 @@
       <c r="S16" s="4"/>
       <c r="T16" s="23"/>
       <c r="U16" s="5"/>
-      <c r="V16" t="b">
-        <f ca="1">(WEEKNUM(TODAY())=WEEKNUM(C2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1220,7 +1231,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
@@ -1232,7 +1243,7 @@
       <c r="N18" s="1"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1244,7 +1255,7 @@
       <c r="N19" s="1"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
         <v>17</v>
@@ -1257,7 +1268,7 @@
       <c r="T20" s="36"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="17" t="s">
         <v>19</v>
@@ -1270,7 +1281,7 @@
       <c r="T21" s="36"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
         <v>20</v>
@@ -1283,7 +1294,7 @@
       <c r="T22" s="36"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="17" t="s">
         <v>14</v>
@@ -1296,7 +1307,7 @@
       <c r="T23" s="36"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -1308,11 +1319,11 @@
       <c r="N24" s="1"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1333,9 +1344,9 @@
       <c r="T25" s="7"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
@@ -1345,7 +1356,7 @@
       <c r="N26" s="1"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1357,10 +1368,10 @@
       <c r="K27" s="1"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1"/>
-      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
         <v>34</v>
@@ -1385,11 +1396,11 @@
       <c r="T28" s="23"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1410,7 +1421,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
         <v>1</v>
@@ -1422,7 +1433,7 @@
       <c r="N30" s="1"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
         <v>2</v>
@@ -1434,7 +1445,7 @@
       <c r="N31" s="1"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="17" t="s">
         <v>44</v>
@@ -1444,10 +1455,10 @@
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
-      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="18" t="s">
         <v>45</v>
@@ -1472,11 +1483,11 @@
       <c r="T33" s="4"/>
       <c r="U33" s="22"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1497,7 +1508,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
         <v>30</v>
@@ -1510,19 +1521,19 @@
       <c r="N35" s="1"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="38"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
+      <c r="Q36" s="36"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="18" t="s">
         <v>34</v>
@@ -1547,11 +1558,11 @@
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1572,7 +1583,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="19" t="s">
         <v>30</v>
@@ -1585,7 +1596,7 @@
       <c r="N39" s="1"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="19" t="s">
         <v>32</v>
@@ -1598,7 +1609,7 @@
       <c r="N40" s="1"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19" t="s">
         <v>34</v>
@@ -1610,7 +1621,7 @@
       <c r="N41" s="1"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="19" t="s">
         <v>35</v>
@@ -1622,9 +1633,9 @@
       <c r="N42" s="1"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1638,7 +1649,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="41"/>
+      <c r="N43" s="38"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58688D2-268F-48EB-AF38-5FAE589B7465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079278FB-AF66-4297-B511-BDE302093FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -448,18 +448,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -467,6 +459,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -811,8 +809,8 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +955,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1020,10 +1018,10 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1046,25 +1044,24 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1075,7 +1072,6 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="44"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
@@ -1087,18 +1083,18 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -1147,14 +1143,14 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="42"/>
+      <c r="R13" s="40"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1207,10 +1203,10 @@
       <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1320,10 +1316,10 @@
       <c r="U24" s="21"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1397,10 +1393,10 @@
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1484,10 +1480,10 @@
       <c r="U33" s="22"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1523,14 +1519,14 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
-      <c r="Q36" s="36"/>
+      <c r="Q36" s="32"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,10 +1555,10 @@
       <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079278FB-AF66-4297-B511-BDE302093FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D8617-4C66-41A1-9D7B-8B5A2E26BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -280,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -368,6 +368,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,7 +390,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -417,7 +432,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
@@ -448,17 +462,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,8 +821,8 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,34 +839,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -866,28 +878,28 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -908,7 +920,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -955,10 +967,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -987,7 +999,7 @@
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="U4" s="2"/>
@@ -1014,14 +1026,14 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="23"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1044,24 +1056,24 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1078,23 +1090,23 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="23"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
@@ -1125,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="U11" s="2"/>
@@ -1137,49 +1149,49 @@
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="1"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="40"/>
+      <c r="R13" s="31"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
-      <c r="R14" s="36"/>
+      <c r="R14" s="31"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
-      <c r="S15" s="36"/>
+      <c r="S15" s="43"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
@@ -1199,14 +1211,14 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="23"/>
+      <c r="T16" s="44"/>
       <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1215,9 +1227,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1233,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="31"/>
       <c r="K18" s="1"/>
       <c r="M18" s="2"/>
       <c r="N18" s="1"/>
@@ -1253,7 +1265,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
@@ -1261,12 +1273,12 @@
       <c r="K20" s="1"/>
       <c r="M20" s="2"/>
       <c r="N20" s="1"/>
-      <c r="T20" s="36"/>
+      <c r="T20" s="31"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
@@ -1274,12 +1286,12 @@
       <c r="K21" s="1"/>
       <c r="M21" s="2"/>
       <c r="N21" s="1"/>
-      <c r="T21" s="36"/>
+      <c r="T21" s="31"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
@@ -1287,12 +1299,12 @@
       <c r="K22" s="1"/>
       <c r="M22" s="2"/>
       <c r="N22" s="1"/>
-      <c r="T22" s="36"/>
+      <c r="T22" s="31"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
@@ -1300,12 +1312,12 @@
       <c r="K23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1"/>
-      <c r="T23" s="36"/>
+      <c r="T23" s="31"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1"/>
@@ -1313,13 +1325,13 @@
       <c r="K24" s="1"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1346,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="1"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1"/>
@@ -1364,7 +1376,7 @@
       <c r="K27" s="1"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1"/>
-      <c r="R27" s="36"/>
+      <c r="R27" s="35"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,14 +1401,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="23"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1423,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="J30" s="31"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="1"/>
       <c r="M30" s="2"/>
       <c r="N30" s="1"/>
@@ -1435,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="29"/>
       <c r="K31" s="1"/>
       <c r="M31" s="2"/>
       <c r="N31" s="1"/>
@@ -1443,7 +1455,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1"/>
@@ -1451,7 +1463,7 @@
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="31"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,13 +1489,13 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="22"/>
+      <c r="U33" s="21"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1526,7 +1538,7 @@
       <c r="J36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
-      <c r="Q36" s="32"/>
+      <c r="Q36" s="31"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,15 +1562,15 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="23"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1611,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="1"/>
       <c r="M41" s="2"/>
       <c r="N41" s="1"/>
@@ -1625,13 +1637,13 @@
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="24"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="1"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1645,7 +1657,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D8617-4C66-41A1-9D7B-8B5A2E26BC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF186C0-26B2-4EA9-9FB2-66BDDED8D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -479,6 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -821,24 +825,24 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="36.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="22" width="36.88671875" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -903,7 +907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -966,7 +970,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>43</v>
       </c>
@@ -991,7 +995,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
         <v>14</v>
@@ -1004,7 +1008,7 @@
       <c r="N4" s="1"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="18" t="s">
         <v>31</v>
@@ -1029,7 +1033,7 @@
       <c r="T5" s="22"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>42</v>
       </c>
@@ -1054,7 +1058,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="42" t="s">
         <v>14</v>
@@ -1071,7 +1075,7 @@
       <c r="N7" s="1"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="45" t="s">
         <v>30</v>
@@ -1094,7 +1098,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>41</v>
       </c>
@@ -1119,7 +1123,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
@@ -1131,7 +1135,7 @@
       <c r="N10" s="1"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -1142,7 +1146,7 @@
       <c r="N11" s="1"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
         <v>17</v>
@@ -1153,7 +1157,7 @@
       <c r="N12" s="1"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
         <v>19</v>
@@ -1165,7 +1169,7 @@
       <c r="R13" s="31"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="19" t="s">
         <v>20</v>
@@ -1177,7 +1181,7 @@
       <c r="R14" s="31"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
         <v>14</v>
@@ -1189,7 +1193,7 @@
       <c r="S15" s="43"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="38" t="s">
         <v>21</v>
@@ -1214,7 +1218,7 @@
       <c r="T16" s="44"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1243,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
         <v>16</v>
@@ -1251,7 +1255,7 @@
       <c r="N18" s="1"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1263,7 +1267,7 @@
       <c r="N19" s="1"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
         <v>17</v>
@@ -1276,7 +1280,7 @@
       <c r="T20" s="31"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
         <v>19</v>
@@ -1289,7 +1293,7 @@
       <c r="T21" s="31"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
         <v>20</v>
@@ -1302,7 +1306,7 @@
       <c r="T22" s="31"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
         <v>14</v>
@@ -1315,7 +1319,7 @@
       <c r="T23" s="31"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
         <v>21</v>
@@ -1327,7 +1331,7 @@
       <c r="N24" s="1"/>
       <c r="U24" s="23"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>39</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
         <v>30</v>
@@ -1364,7 +1368,7 @@
       <c r="N26" s="1"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1379,7 +1383,7 @@
       <c r="R27" s="35"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
         <v>34</v>
@@ -1404,7 +1408,7 @@
       <c r="T28" s="22"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1433,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="19">
         <v>1</v>
@@ -1441,7 +1445,7 @@
       <c r="N30" s="1"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="19">
         <v>2</v>
@@ -1453,9 +1457,9 @@
       <c r="N31" s="1"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1"/>
@@ -1463,10 +1467,10 @@
       <c r="K32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="1"/>
-      <c r="R32" s="31"/>
+      <c r="R32" s="49"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="18" t="s">
         <v>45</v>
@@ -1491,7 +1495,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="21"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>38</v>
       </c>
@@ -1516,7 +1520,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
         <v>30</v>
@@ -1529,7 +1533,7 @@
       <c r="N35" s="1"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="19" t="s">
         <v>32</v>
@@ -1541,7 +1545,7 @@
       <c r="Q36" s="31"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="18" t="s">
         <v>34</v>
@@ -1566,7 +1570,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1595,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="19" t="s">
         <v>30</v>
@@ -1604,7 +1608,7 @@
       <c r="N39" s="1"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="19" t="s">
         <v>32</v>
@@ -1617,7 +1621,7 @@
       <c r="N40" s="1"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="19" t="s">
         <v>34</v>
@@ -1629,7 +1633,7 @@
       <c r="N41" s="1"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="19" t="s">
         <v>35</v>
@@ -1641,7 +1645,7 @@
       <c r="N42" s="1"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="38" t="s">
         <v>36</v>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF186C0-26B2-4EA9-9FB2-66BDDED8D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB05FC4-5436-4815-AA57-472C005401BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Subject</t>
   </si>
@@ -172,13 +172,19 @@
   </si>
   <si>
     <t>4 (TBC)</t>
+  </si>
+  <si>
+    <t>WK17</t>
+  </si>
+  <si>
+    <t>WK18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +231,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +402,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -422,9 +434,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,8 +441,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,7 +461,6 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -473,16 +479,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -526,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -566,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -672,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -814,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -822,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,39 +847,39 @@
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.6640625" customWidth="1"/>
     <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="36.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
     <col min="23" max="23" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -882,32 +891,38 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -924,7 +939,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="21">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -969,12 +984,18 @@
       <c r="U2" s="11">
         <v>45264</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="V2" s="11">
+        <v>45271</v>
+      </c>
+      <c r="W2" s="11">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -985,7 +1006,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -993,24 +1014,34 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="3"/>
@@ -1023,21 +1054,22 @@
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1048,7 +1080,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1056,28 +1088,38 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="M7" s="2"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="1"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1088,32 +1130,34 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="44"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1121,81 +1165,128 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="1"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="34"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="30"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="1"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="1"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="31"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="1"/>
-      <c r="R14" s="31"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="1"/>
-      <c r="S15" s="43"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
@@ -1208,21 +1299,23 @@
       <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="T16" s="40"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1231,111 +1324,165 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K17" s="29"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="28"/>
       <c r="K18" s="1"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="1"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="1"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="1"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="1"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="1"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="1"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="1"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="47"/>
       <c r="N24" s="1"/>
-      <c r="U24" s="23"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1346,7 +1493,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="6"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -1354,38 +1501,55 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="1"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="1"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="1"/>
-      <c r="R27" s="35"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
@@ -1398,21 +1562,23 @@
       <c r="J28" s="5"/>
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="T28" s="40"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1423,56 +1589,81 @@
       <c r="J29" s="8"/>
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M29" s="7"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="47"/>
       <c r="N30" s="1"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="26"/>
       <c r="K31" s="1"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="1"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="1"/>
-      <c r="R32" s="49"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
@@ -1485,21 +1676,23 @@
       <c r="J33" s="5"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="21"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1510,7 +1703,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -1518,36 +1711,53 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" s="16"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="1"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="1"/>
-      <c r="Q36" s="31"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
@@ -1560,21 +1770,23 @@
       <c r="J37" s="5"/>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="3"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="22"/>
+      <c r="S37" s="45"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1585,69 +1797,103 @@
       <c r="J38" s="8"/>
       <c r="K38" s="6"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="8"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M38" s="7"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="19"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="47"/>
       <c r="N39" s="1"/>
-      <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="H40" s="20"/>
+      <c r="H40" s="19"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="1"/>
-      <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="J41" s="23"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="1"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="47"/>
       <c r="N41" s="1"/>
-      <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="1"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1660,15 +1906,17 @@
       <c r="J43" s="5"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="37"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="33"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="5"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1681,7 +1929,8 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:U2">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C2:W2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
     </cfRule>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Tafe-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB05FC4-5436-4815-AA57-472C005401BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0843374-ED21-428D-B542-2D00CD1A00D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -479,19 +479,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
@@ -535,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,7 +572,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -681,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,25 +830,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D027B5-64ED-4564-9511-705E2CE1AE53}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -922,7 +919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -991,11 +988,11 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1018,7 +1015,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
         <v>14</v>
@@ -1027,19 +1024,10 @@
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="47"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="17" t="s">
         <v>31</v>
@@ -1056,20 +1044,13 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
       <c r="W5" s="31"/>
     </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1092,7 +1073,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="38" t="s">
         <v>14</v>
@@ -1105,19 +1086,10 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="M7" s="47"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="41" t="s">
         <v>30</v>
@@ -1130,7 +1102,6 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="M8" s="47"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1142,11 +1113,11 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="29"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -1169,7 +1140,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="18" t="s">
         <v>16</v>
@@ -1177,38 +1148,20 @@
       <c r="C10" s="1"/>
       <c r="E10" s="19"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="47"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="K11" s="30"/>
-      <c r="M11" s="47"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
         <v>17</v>
@@ -1217,74 +1170,42 @@
       <c r="K12" s="1"/>
       <c r="M12" s="28"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="M13" s="47"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
       <c r="R13" s="28"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="47"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="47"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
       <c r="S15" s="39"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="34" t="s">
         <v>21</v>
@@ -1311,11 +1232,11 @@
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1326,19 +1247,19 @@
       <c r="J17" s="8"/>
       <c r="K17" s="29"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="48"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="18" t="s">
         <v>16</v>
@@ -1346,19 +1267,10 @@
       <c r="C18" s="1"/>
       <c r="I18" s="28"/>
       <c r="K18" s="1"/>
-      <c r="M18" s="47"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="18" t="s">
         <v>18</v>
@@ -1366,19 +1278,10 @@
       <c r="C19" s="1"/>
       <c r="J19" s="19"/>
       <c r="K19" s="1"/>
-      <c r="M19" s="47"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="18" t="s">
         <v>17</v>
@@ -1386,19 +1289,11 @@
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
-      <c r="M20" s="47"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
       <c r="T20" s="28"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="18" t="s">
         <v>19</v>
@@ -1406,19 +1301,11 @@
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
-      <c r="M21" s="47"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>20</v>
@@ -1426,19 +1313,11 @@
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="47"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
       <c r="T22" s="28"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
         <v>14</v>
@@ -1446,19 +1325,11 @@
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="47"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>21</v>
@@ -1466,23 +1337,15 @@
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="47"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
       <c r="U24" s="28"/>
-      <c r="V24" s="47"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1505,7 +1368,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="18" t="s">
         <v>30</v>
@@ -1513,19 +1376,10 @@
       <c r="C26" s="1"/>
       <c r="J26" s="20"/>
       <c r="K26" s="1"/>
-      <c r="M26" s="47"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,19 +1389,11 @@
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
-      <c r="M27" s="47"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
       <c r="R27" s="28"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="34" t="s">
         <v>34</v>
@@ -1574,11 +1420,11 @@
       <c r="V28" s="4"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1591,17 +1437,17 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="18">
         <v>1</v>
@@ -1609,19 +1455,10 @@
       <c r="C30" s="1"/>
       <c r="J30" s="27"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="47"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="18">
         <v>2</v>
@@ -1629,19 +1466,10 @@
       <c r="C31" s="1"/>
       <c r="H31" s="26"/>
       <c r="K31" s="1"/>
-      <c r="M31" s="47"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="18" t="s">
         <v>44</v>
@@ -1649,21 +1477,13 @@
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="47"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
       <c r="R32" s="28"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
@@ -1678,21 +1498,14 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="47"/>
+      <c r="U33" s="28"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1715,7 +1528,7 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="18" t="s">
         <v>30</v>
@@ -1724,40 +1537,23 @@
       <c r="F35" s="16"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
-      <c r="M35" s="47"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="M36" s="47"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
       <c r="Q36" s="28"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
@@ -1776,17 +1572,17 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="45"/>
+      <c r="S37" s="42"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1799,17 +1595,17 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="29"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="18" t="s">
         <v>30</v>
@@ -1818,19 +1614,10 @@
       <c r="F39" s="19"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
-      <c r="M39" s="47"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
         <v>32</v>
@@ -1839,19 +1626,10 @@
       <c r="H40" s="19"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="47"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="18" t="s">
         <v>34</v>
@@ -1859,19 +1637,10 @@
       <c r="C41" s="1"/>
       <c r="J41" s="20"/>
       <c r="K41" s="1"/>
-      <c r="M41" s="47"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="18" t="s">
         <v>35</v>
@@ -1881,17 +1650,9 @@
       <c r="K42" s="1"/>
       <c r="M42" s="28"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="34" t="s">
         <v>36</v>

--- a/Semester02_AssessmentPlan .xlsx
+++ b/Semester02_AssessmentPlan .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0843374-ED21-428D-B542-2D00CD1A00D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F03F3C-0135-40C1-AF4F-9F33BF9147A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F450C696-CD13-4974-BFDF-8C8642BB26A8}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +196,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -380,29 +373,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -434,15 +412,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -457,36 +432,33 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -832,51 +804,51 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" customWidth="1"/>
     <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
     <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -888,34 +860,34 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -936,7 +908,7 @@
       <c r="F2" s="11">
         <v>45159</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>45166</v>
       </c>
       <c r="H2" s="11">
@@ -989,10 +961,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1013,23 +985,31 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="25"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="3"/>
@@ -1043,14 +1023,22 @@
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="1"/>
-      <c r="W5" s="31"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1059,7 +1047,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
@@ -1071,27 +1059,35 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="19"/>
       <c r="N7" s="1"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3"/>
@@ -1107,25 +1103,25 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="40"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1138,76 +1134,121 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
       <c r="K10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="29"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="1"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="28"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="R14" s="28"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="S15" s="39"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
@@ -1227,16 +1268,16 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="40"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1245,107 +1286,158 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="I18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="K18" s="1"/>
       <c r="N18" s="1"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="T20" s="28"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="T21" s="28"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="T22" s="28"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="T23" s="28"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="U24" s="28"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="38"/>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1366,36 +1458,51 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="W25" s="8"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="1"/>
       <c r="N26" s="1"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="R27" s="28"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
@@ -1415,16 +1522,16 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="40"/>
+      <c r="T28" s="33"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1436,54 +1543,77 @@
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="W29" s="8"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>1</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="K31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="R32" s="28"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
@@ -1498,14 +1628,21 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="1"/>
-      <c r="U33" s="28"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="38"/>
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1526,11 +1663,11 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
+      <c r="W34" s="8"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="1"/>
@@ -1538,22 +1675,37 @@
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="N35" s="1"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1"/>
       <c r="J36" s="2"/>
       <c r="N36" s="1"/>
-      <c r="Q36" s="28"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
@@ -1572,17 +1724,17 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="42"/>
+      <c r="S37" s="34"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="5"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1594,67 +1746,99 @@
       <c r="K38" s="6"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
+      <c r="W38" s="8"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="18"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
       <c r="N39" s="1"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
       <c r="N40" s="1"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="1"/>
       <c r="N41" s="1"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1"/>
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="28"/>
+      <c r="M42" s="27"/>
       <c r="N42" s="1"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1668,7 +1852,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="33"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -1690,7 +1874,7 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:W2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>WEEKNUM(TODAY())&lt;WEEKNUM(C2)</formula>
